--- a/import/import_mon.xlsx
+++ b/import/import_mon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65944162-E30F-4B32-A84C-51FC4111D7B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C18B7CD-6FB9-48CA-9D3D-9B0008B48F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCF34E21-58DF-44CD-BC56-38C631FFAE60}"/>
   </bookViews>
@@ -53,16 +53,16 @@
     <t>cd1</t>
   </si>
   <si>
-    <t>Công nghệ thông tin</t>
-  </si>
-  <si>
     <t>A1</t>
   </si>
   <si>
     <t>a1</t>
   </si>
   <si>
-    <t>Thiết kế đồ họa</t>
+    <t>CNTT</t>
+  </si>
+  <si>
+    <t>DH</t>
   </si>
 </sst>
 </file>
@@ -460,7 +460,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -489,15 +489,15 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>

--- a/import/import_mon.xlsx
+++ b/import/import_mon.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\L A P T R I N H V I EN WEBSITE\Cd2\nckh_ng\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C18B7CD-6FB9-48CA-9D3D-9B0008B48F5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3BE385-9B77-4FE4-ACF0-D37DF174389B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BCF34E21-58DF-44CD-BC56-38C631FFAE60}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>TEN_MON</t>
   </si>
@@ -53,23 +53,98 @@
     <t>cd1</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
     <t>CNTT</t>
   </si>
   <si>
     <t>DH</t>
+  </si>
+  <si>
+    <t>Toán cao cấp</t>
+  </si>
+  <si>
+    <t>tc1</t>
+  </si>
+  <si>
+    <t>Vật lý đại cương</t>
+  </si>
+  <si>
+    <t>vldc</t>
+  </si>
+  <si>
+    <t>Nhập môn lập trình</t>
+  </si>
+  <si>
+    <t>nmlt</t>
+  </si>
+  <si>
+    <t>Cấu trúc dữ liệu</t>
+  </si>
+  <si>
+    <t>ctdl</t>
+  </si>
+  <si>
+    <t>Giải tích 1</t>
+  </si>
+  <si>
+    <t>gt1</t>
+  </si>
+  <si>
+    <t>Hóa học đại cương</t>
+  </si>
+  <si>
+    <t>hhdc</t>
+  </si>
+  <si>
+    <t>Kinh tế vi mô</t>
+  </si>
+  <si>
+    <t>ktvm</t>
+  </si>
+  <si>
+    <t>KT</t>
+  </si>
+  <si>
+    <t>Nguyên lý kế toán</t>
+  </si>
+  <si>
+    <t>nlk</t>
+  </si>
+  <si>
+    <t>Quản trị học</t>
+  </si>
+  <si>
+    <t>qth</t>
+  </si>
+  <si>
+    <t>QTKD</t>
+  </si>
+  <si>
+    <t>Tiếng Anh 1</t>
+  </si>
+  <si>
+    <t>ta1</t>
+  </si>
+  <si>
+    <t>Triết học Mác-Lênin</t>
+  </si>
+  <si>
+    <t>trm</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Hệ điều hành</t>
+  </si>
+  <si>
+    <t>hdh</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +152,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0F1115"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +169,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -122,7 +209,9 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -457,15 +546,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D52ED2E-7347-4837-B2A5-76C27A9D0106}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
     <col min="2" max="2" width="8.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -489,18 +578,139 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>8</v>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
